--- a/LoadRunner/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
+++ b/LoadRunner/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Homework\LoadRunner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -536,12 +536,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1488,73 +1496,87 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1598,46 +1620,46 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1647,7 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1655,23 +1677,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1695,39 +1717,42 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="80" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1743,76 +1768,81 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="94"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="108"/>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="122">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48"/>
     <cellStyle name="20% — акцент1 3" xfId="68"/>
     <cellStyle name="20% — акцент1 4" xfId="82"/>
     <cellStyle name="20% — акцент1 5" xfId="96"/>
+    <cellStyle name="20% — акцент1 6" xfId="110"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51"/>
     <cellStyle name="20% — акцент2 3" xfId="70"/>
     <cellStyle name="20% — акцент2 4" xfId="84"/>
     <cellStyle name="20% — акцент2 5" xfId="98"/>
+    <cellStyle name="20% — акцент2 6" xfId="112"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54"/>
     <cellStyle name="20% — акцент3 3" xfId="72"/>
     <cellStyle name="20% — акцент3 4" xfId="86"/>
     <cellStyle name="20% — акцент3 5" xfId="100"/>
+    <cellStyle name="20% — акцент3 6" xfId="114"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57"/>
     <cellStyle name="20% — акцент4 3" xfId="74"/>
     <cellStyle name="20% — акцент4 4" xfId="88"/>
     <cellStyle name="20% — акцент4 5" xfId="102"/>
+    <cellStyle name="20% — акцент4 6" xfId="116"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60"/>
     <cellStyle name="20% — акцент5 3" xfId="76"/>
     <cellStyle name="20% — акцент5 4" xfId="90"/>
     <cellStyle name="20% — акцент5 5" xfId="104"/>
+    <cellStyle name="20% — акцент5 6" xfId="118"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63"/>
     <cellStyle name="20% — акцент6 3" xfId="78"/>
     <cellStyle name="20% — акцент6 4" xfId="92"/>
     <cellStyle name="20% — акцент6 5" xfId="106"/>
+    <cellStyle name="20% — акцент6 6" xfId="120"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49"/>
     <cellStyle name="40% — акцент1 3" xfId="69"/>
     <cellStyle name="40% — акцент1 4" xfId="83"/>
     <cellStyle name="40% — акцент1 5" xfId="97"/>
+    <cellStyle name="40% — акцент1 6" xfId="111"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52"/>
     <cellStyle name="40% — акцент2 3" xfId="71"/>
     <cellStyle name="40% — акцент2 4" xfId="85"/>
     <cellStyle name="40% — акцент2 5" xfId="99"/>
+    <cellStyle name="40% — акцент2 6" xfId="113"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55"/>
     <cellStyle name="40% — акцент3 3" xfId="73"/>
     <cellStyle name="40% — акцент3 4" xfId="87"/>
     <cellStyle name="40% — акцент3 5" xfId="101"/>
+    <cellStyle name="40% — акцент3 6" xfId="115"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58"/>
     <cellStyle name="40% — акцент4 3" xfId="75"/>
     <cellStyle name="40% — акцент4 4" xfId="89"/>
     <cellStyle name="40% — акцент4 5" xfId="103"/>
+    <cellStyle name="40% — акцент4 6" xfId="117"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61"/>
     <cellStyle name="40% — акцент5 3" xfId="77"/>
     <cellStyle name="40% — акцент5 4" xfId="91"/>
     <cellStyle name="40% — акцент5 5" xfId="105"/>
+    <cellStyle name="40% — акцент5 6" xfId="119"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64"/>
     <cellStyle name="40% — акцент6 3" xfId="79"/>
     <cellStyle name="40% — акцент6 4" xfId="93"/>
     <cellStyle name="40% — акцент6 5" xfId="107"/>
+    <cellStyle name="40% — акцент6 6" xfId="121"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
@@ -1850,6 +1880,7 @@
     <cellStyle name="Обычный 5" xfId="66"/>
     <cellStyle name="Обычный 6" xfId="80"/>
     <cellStyle name="Обычный 7" xfId="94"/>
+    <cellStyle name="Обычный 8" xfId="108"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43"/>
@@ -1857,54 +1888,13 @@
     <cellStyle name="Примечание 4" xfId="67"/>
     <cellStyle name="Примечание 5" xfId="81"/>
     <cellStyle name="Примечание 6" xfId="95"/>
+    <cellStyle name="Примечание 7" xfId="109"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -2308,7 +2298,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2388,25 +2378,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="20">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2687,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="54" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="54" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2767,7 +2757,7 @@
       <c r="S1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="66" t="s">
         <v>82</v>
       </c>
       <c r="U1" s="54" t="s">
@@ -2838,7 +2828,7 @@
         <f t="shared" ref="S2:S7" si="1">R2/W$2</f>
         <v>0.25</v>
       </c>
-      <c r="T2" s="68">
+      <c r="T2" s="67">
         <f t="shared" ref="T2:T7" si="2">60/(Q2)</f>
         <v>2.8571428571428572</v>
       </c>
@@ -2846,7 +2836,7 @@
         <v>20</v>
       </c>
       <c r="V2" s="56">
-        <f>ROUND(R2*T2*U2,0)</f>
+        <f t="shared" ref="V2:V7" si="3">ROUND(R2*T2*U2,0)</f>
         <v>114</v>
       </c>
       <c r="W2" s="30">
@@ -2912,7 +2902,7 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="T3" s="68">
+      <c r="T3" s="67">
         <f t="shared" si="2"/>
         <v>2.3076923076923075</v>
       </c>
@@ -2920,7 +2910,7 @@
         <v>20</v>
       </c>
       <c r="V3" s="56">
-        <f>ROUND(R3*T3*U3,0)</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="W3" s="30"/>
@@ -2944,7 +2934,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="18">
-        <f t="shared" ref="F4" si="3">60/E4*C4</f>
+        <f t="shared" ref="F4" si="4">60/E4*C4</f>
         <v>2.8571428571428572</v>
       </c>
       <c r="G4">
@@ -2952,7 +2942,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="17">
-        <f t="shared" ref="H4" si="4">D4*F4*G4</f>
+        <f t="shared" ref="H4" si="5">D4*F4*G4</f>
         <v>114.28571428571429</v>
       </c>
       <c r="I4" s="16" t="s">
@@ -2983,7 +2973,7 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="T4" s="68">
+      <c r="T4" s="67">
         <f t="shared" si="2"/>
         <v>3.1578947368421053</v>
       </c>
@@ -2991,7 +2981,7 @@
         <v>20</v>
       </c>
       <c r="V4" s="56">
-        <f>ROUND(R4*T4*U4,0)</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="W4" s="30"/>
@@ -3015,7 +3005,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="18">
-        <f t="shared" ref="F5" si="5">60/E5*C5</f>
+        <f t="shared" ref="F5" si="6">60/E5*C5</f>
         <v>2.8571428571428572</v>
       </c>
       <c r="G5">
@@ -3023,7 +3013,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="17">
-        <f t="shared" ref="H5" si="6">D5*F5*G5</f>
+        <f t="shared" ref="H5" si="7">D5*F5*G5</f>
         <v>114.28571428571429</v>
       </c>
       <c r="I5" s="16" t="s">
@@ -3054,7 +3044,7 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="T5" s="68">
+      <c r="T5" s="67">
         <f t="shared" si="2"/>
         <v>1.875</v>
       </c>
@@ -3062,7 +3052,7 @@
         <v>20</v>
       </c>
       <c r="V5" s="56">
-        <f>ROUND(R5*T5*U5,0)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="W5" s="30"/>
@@ -3078,15 +3068,15 @@
         <v>1</v>
       </c>
       <c r="D6" s="44">
-        <f t="shared" ref="D6" si="7">VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D6" si="8">VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6" si="8">VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E6" si="9">VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>21</v>
       </c>
       <c r="F6" s="18">
-        <f t="shared" ref="F6" si="9">60/E6*C6</f>
+        <f t="shared" ref="F6" si="10">60/E6*C6</f>
         <v>2.8571428571428572</v>
       </c>
       <c r="G6">
@@ -3094,7 +3084,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="17">
-        <f t="shared" ref="H6" si="10">D6*F6*G6</f>
+        <f t="shared" ref="H6" si="11">D6*F6*G6</f>
         <v>114.28571428571429</v>
       </c>
       <c r="I6" s="16" t="s">
@@ -3125,7 +3115,7 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="T6" s="68">
+      <c r="T6" s="67">
         <f t="shared" si="2"/>
         <v>2.8571428571428572</v>
       </c>
@@ -3133,39 +3123,39 @@
         <v>20</v>
       </c>
       <c r="V6" s="56">
-        <f>ROUND(R6*T6*U6,0)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="W6" s="30"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="65">
         <v>1</v>
       </c>
       <c r="D7" s="44">
-        <f t="shared" ref="D7" si="11">VLOOKUP(A7,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D7" si="12">VLOOKUP(A7,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7" si="12">VLOOKUP(A7,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E7" si="13">VLOOKUP(A7,$M$1:$X$8,5,FALSE)</f>
         <v>21</v>
       </c>
       <c r="F7" s="18">
-        <f t="shared" ref="F7" si="13">60/E7*C7</f>
+        <f t="shared" ref="F7" si="14">60/E7*C7</f>
         <v>2.8571428571428572</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7" si="14">VLOOKUP(A7,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G7" si="15">VLOOKUP(A7,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" ref="H7" si="15">D7*F7*G7</f>
+        <f t="shared" ref="H7" si="16">D7*F7*G7</f>
         <v>114.28571428571429</v>
       </c>
       <c r="I7" s="16" t="s">
@@ -3196,7 +3186,7 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="T7" s="68">
+      <c r="T7" s="67">
         <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
@@ -3204,8 +3194,8 @@
         <v>20</v>
       </c>
       <c r="V7" s="56">
-        <f>SUM(V2:V6)</f>
-        <v>355</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="W7" s="30"/>
     </row>
@@ -3220,23 +3210,23 @@
         <v>1</v>
       </c>
       <c r="D8" s="44">
-        <f t="shared" ref="D8:D32" si="16">VLOOKUP(A8,$M$1:$X$8,6,FALSE)</f>
+        <f t="shared" ref="D8:D32" si="17">VLOOKUP(A8,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E32" si="17">VLOOKUP(A8,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E8:E32" si="18">VLOOKUP(A8,$M$1:$X$8,5,FALSE)</f>
         <v>21</v>
       </c>
       <c r="F8" s="18">
-        <f t="shared" ref="F8:F32" si="18">60/E8*C8</f>
+        <f t="shared" ref="F8:F32" si="19">60/E8*C8</f>
         <v>2.8571428571428572</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G32" si="19">VLOOKUP(A8,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G8:G32" si="20">VLOOKUP(A8,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" ref="H8:H17" si="20">D8*F8*G8</f>
+        <f t="shared" ref="H8:H17" si="21">D8*F8*G8</f>
         <v>114.28571428571429</v>
       </c>
       <c r="I8" s="16" t="s">
@@ -3255,7 +3245,7 @@
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="64"/>
+      <c r="T8" s="63"/>
       <c r="U8" s="50"/>
       <c r="V8" s="50"/>
       <c r="W8" s="31"/>
@@ -3271,23 +3261,23 @@
         <v>1</v>
       </c>
       <c r="D9" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="F9" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.3076923076923075</v>
       </c>
       <c r="G9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H9" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>46.153846153846146</v>
       </c>
       <c r="I9" s="16" t="s">
@@ -3308,23 +3298,23 @@
         <v>1</v>
       </c>
       <c r="D10" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="F10" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.3076923076923075</v>
       </c>
       <c r="G10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H10" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>46.153846153846146</v>
       </c>
       <c r="I10" s="16" t="s">
@@ -3345,23 +3335,23 @@
         <v>1</v>
       </c>
       <c r="D11" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E11" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="F11" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.3076923076923075</v>
       </c>
       <c r="G11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>46.153846153846146</v>
       </c>
       <c r="I11" s="16" t="s">
@@ -3382,23 +3372,23 @@
         <v>1</v>
       </c>
       <c r="D12" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E12" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="F12" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.3076923076923075</v>
       </c>
       <c r="G12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>46.153846153846146</v>
       </c>
       <c r="I12" s="16" t="s">
@@ -3419,23 +3409,23 @@
         <v>1</v>
       </c>
       <c r="D13" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E13" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="F13" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.3076923076923075</v>
       </c>
       <c r="G13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>46.153846153846146</v>
       </c>
       <c r="I13" s="16" t="s">
@@ -3456,23 +3446,23 @@
         <v>1</v>
       </c>
       <c r="D14" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E14" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="F14" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.1578947368421053</v>
       </c>
       <c r="G14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>63.15789473684211</v>
       </c>
       <c r="I14" s="16" t="s">
@@ -3493,23 +3483,23 @@
         <v>1</v>
       </c>
       <c r="D15" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E15" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="F15" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.1578947368421053</v>
       </c>
       <c r="G15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>63.15789473684211</v>
       </c>
     </row>
@@ -3524,23 +3514,23 @@
         <v>1</v>
       </c>
       <c r="D16" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="F16" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.1578947368421053</v>
       </c>
       <c r="G16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>63.15789473684211</v>
       </c>
     </row>
@@ -3555,23 +3545,23 @@
         <v>1</v>
       </c>
       <c r="D17" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E17" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="F17" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.1578947368421053</v>
       </c>
       <c r="G17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>63.15789473684211</v>
       </c>
     </row>
@@ -3586,23 +3576,23 @@
         <v>1</v>
       </c>
       <c r="D18" s="43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>225</v>
       </c>
       <c r="F18" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="G18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" ref="H18:H20" si="21">D18*F18*G18</f>
+        <f t="shared" ref="H18:H20" si="22">D18*F18*G18</f>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -3617,23 +3607,23 @@
         <v>1</v>
       </c>
       <c r="D19" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>225</v>
       </c>
       <c r="F19" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="G19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -3641,36 +3631,36 @@
       <c r="A20" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="68" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="41">
         <v>1</v>
       </c>
       <c r="D20" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>225</v>
       </c>
       <c r="F20" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="G20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="M20" s="70" t="s">
+      <c r="M20" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="O20" s="70"/>
+      <c r="O20" s="69"/>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23" t="s">
@@ -3683,23 +3673,23 @@
         <v>1</v>
       </c>
       <c r="D21" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>225</v>
       </c>
       <c r="F21" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="G21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" ref="H21:H32" si="22">D21*F21*G21</f>
+        <f t="shared" ref="H21:H32" si="23">D21*F21*G21</f>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -3714,23 +3704,23 @@
         <v>1</v>
       </c>
       <c r="D22" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="F22" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.875</v>
       </c>
       <c r="G22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>75</v>
       </c>
     </row>
@@ -3745,23 +3735,23 @@
         <v>1</v>
       </c>
       <c r="D23" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="F23" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.875</v>
       </c>
       <c r="G23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>75</v>
       </c>
     </row>
@@ -3772,27 +3762,27 @@
       <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="65">
         <v>1</v>
       </c>
       <c r="D24" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="F24" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.875</v>
       </c>
       <c r="G24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H24" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>75</v>
       </c>
     </row>
@@ -3807,23 +3797,23 @@
         <v>1</v>
       </c>
       <c r="D25" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="F25" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.875</v>
       </c>
       <c r="G25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>75</v>
       </c>
     </row>
@@ -3838,23 +3828,23 @@
         <v>1</v>
       </c>
       <c r="D26" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.875</v>
       </c>
       <c r="G26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H26" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>75</v>
       </c>
     </row>
@@ -3865,27 +3855,27 @@
       <c r="B27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="65">
         <v>1</v>
       </c>
       <c r="D27" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.875</v>
       </c>
       <c r="G27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>75</v>
       </c>
     </row>
@@ -3900,23 +3890,23 @@
         <v>0</v>
       </c>
       <c r="D28" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="F28" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3931,23 +3921,23 @@
         <v>1</v>
       </c>
       <c r="D29" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="F29" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="G29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H29" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>57.142857142857146</v>
       </c>
     </row>
@@ -3962,23 +3952,23 @@
         <v>1</v>
       </c>
       <c r="D30" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="F30" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="G30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>57.142857142857146</v>
       </c>
     </row>
@@ -3993,23 +3983,23 @@
         <v>1</v>
       </c>
       <c r="D31" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="F31" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="G31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>57.142857142857146</v>
       </c>
     </row>
@@ -4024,36 +4014,36 @@
         <v>1</v>
       </c>
       <c r="D32" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="F32" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="G32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H32" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>57.142857142857146</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="75" t="s">
+      <c r="B35" s="77"/>
+      <c r="C35" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="76"/>
+      <c r="D35" s="79"/>
     </row>
     <row r="36" spans="1:9" ht="74" x14ac:dyDescent="0.45">
       <c r="A36" s="26" t="s">
@@ -4069,7 +4059,7 @@
         <v>55</v>
       </c>
       <c r="E36" s="34"/>
-      <c r="F36" s="62" t="s">
+      <c r="F36" s="61" t="s">
         <v>78</v>
       </c>
       <c r="G36" s="22" t="s">
@@ -4098,21 +4088,21 @@
         <v>0.51995019459241842</v>
       </c>
       <c r="E37" s="33"/>
-      <c r="F37" s="63" t="str">
+      <c r="F37" s="62" t="str">
         <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
         <v>home_page</v>
       </c>
       <c r="G37" s="35">
-        <f>C37/3</f>
-        <v>361.07364565259303</v>
-      </c>
-      <c r="H37" s="82">
-        <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
-        <v>323</v>
+        <f>C37/3*3*5</f>
+        <v>5416.1046847888956</v>
+      </c>
+      <c r="H37" s="75">
+        <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>5418</v>
       </c>
       <c r="I37" s="21">
         <f>1-G37/H37</f>
-        <v>-0.11787506393991642</v>
+        <v>3.4981823756075059E-4</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -4123,7 +4113,7 @@
         <v>422</v>
       </c>
       <c r="C38" s="38">
-        <f t="shared" ref="C38:C48" si="23">GETPIVOTDATA("Итого",$I$1,"transaction rq",A38)*3</f>
+        <f t="shared" ref="C38:C49" si="24">GETPIVOTDATA("Итого",$I$1,"transaction rq",A38)*3</f>
         <v>893.74725274725279</v>
       </c>
       <c r="D38" s="20">
@@ -4131,21 +4121,21 @@
         <v>0.52783071645498025</v>
       </c>
       <c r="E38" s="33"/>
-      <c r="F38" s="63" t="str">
+      <c r="F38" s="62" t="str">
         <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
       <c r="G38" s="35">
-        <f t="shared" ref="G38:G48" si="24">C38/3</f>
-        <v>297.91575091575095</v>
-      </c>
-      <c r="H38" s="82">
-        <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
-        <v>260</v>
-      </c>
-      <c r="I38" s="80">
-        <f t="shared" ref="I37:I49" si="25">1-G38/H38</f>
-        <v>-0.14582981121442673</v>
+        <f t="shared" ref="G38:G48" si="25">C38/3*3*5</f>
+        <v>4468.7362637362639</v>
+      </c>
+      <c r="H38" s="75">
+        <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>4464</v>
+      </c>
+      <c r="I38" s="74">
+        <f t="shared" ref="I38:I49" si="26">1-G38/H38</f>
+        <v>-1.0609909803458439E-3</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="36" x14ac:dyDescent="0.35">
@@ -4156,7 +4146,7 @@
         <v>305</v>
       </c>
       <c r="C39" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>583.85714285714289</v>
       </c>
       <c r="D39" s="20">
@@ -4164,21 +4154,21 @@
         <v>0.47761194029850751</v>
       </c>
       <c r="E39" s="33"/>
-      <c r="F39" s="63" t="str">
+      <c r="F39" s="62" t="str">
         <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>flights</v>
       </c>
       <c r="G39" s="35">
-        <f t="shared" si="24"/>
-        <v>194.61904761904762</v>
-      </c>
-      <c r="H39" s="82">
-        <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
-        <v>155</v>
+        <f t="shared" si="25"/>
+        <v>2919.2857142857147</v>
+      </c>
+      <c r="H39" s="75">
+        <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>2904</v>
       </c>
       <c r="I39" s="21">
-        <f t="shared" si="25"/>
-        <v>-0.25560675883256523</v>
+        <f t="shared" si="26"/>
+        <v>-5.2636757182213945E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="36" x14ac:dyDescent="0.35">
@@ -4189,29 +4179,29 @@
         <v>282</v>
       </c>
       <c r="C40" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>567.85714285714289</v>
       </c>
       <c r="D40" s="20">
-        <f t="shared" ref="D40:D49" si="26">1-B40/C40</f>
+        <f t="shared" ref="D40:D49" si="27">1-B40/C40</f>
         <v>0.50339622641509441</v>
       </c>
       <c r="E40" s="33"/>
-      <c r="F40" s="63" t="str">
+      <c r="F40" s="62" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>find_flight</v>
       </c>
       <c r="G40" s="35">
-        <f t="shared" si="24"/>
-        <v>189.28571428571431</v>
-      </c>
-      <c r="H40" s="81">
-        <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>152</v>
+        <f t="shared" si="25"/>
+        <v>2839.2857142857147</v>
+      </c>
+      <c r="H40" s="75">
+        <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>2826</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="25"/>
-        <v>-0.24530075187969946</v>
+        <f t="shared" si="26"/>
+        <v>-4.7012435547468812E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -4222,29 +4212,29 @@
         <v>270</v>
       </c>
       <c r="C41" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>567.85714285714289</v>
       </c>
       <c r="D41" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.52452830188679256</v>
       </c>
       <c r="E41" s="33"/>
-      <c r="F41" s="63" t="str">
+      <c r="F41" s="62" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>choice_flight</v>
       </c>
       <c r="G41" s="35">
-        <f t="shared" si="24"/>
-        <v>189.28571428571431</v>
-      </c>
-      <c r="H41" s="81">
-        <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
-        <v>152</v>
+        <f t="shared" si="25"/>
+        <v>2839.2857142857147</v>
+      </c>
+      <c r="H41" s="75">
+        <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>2838</v>
       </c>
       <c r="I41" s="21">
-        <f t="shared" si="25"/>
-        <v>-0.24530075187969946</v>
+        <f t="shared" si="26"/>
+        <v>-4.5303533675644658E-4</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -4255,29 +4245,29 @@
         <v>175</v>
       </c>
       <c r="C42" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>342.85714285714289</v>
       </c>
       <c r="D42" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.48958333333333337</v>
       </c>
       <c r="E42" s="33"/>
-      <c r="F42" s="63" t="str">
+      <c r="F42" s="62" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>payment</v>
       </c>
       <c r="G42" s="35">
-        <f t="shared" si="24"/>
-        <v>114.28571428571429</v>
-      </c>
-      <c r="H42" s="81">
-        <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
-        <v>77</v>
+        <f t="shared" si="25"/>
+        <v>1714.2857142857144</v>
+      </c>
+      <c r="H42" s="75">
+        <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>1716</v>
       </c>
       <c r="I42" s="21">
-        <f t="shared" si="25"/>
-        <v>-0.4842300556586272</v>
+        <f t="shared" si="26"/>
+        <v>9.9900099900085415E-4</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -4288,29 +4278,29 @@
         <v>280</v>
       </c>
       <c r="C43" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>534.8901098901099</v>
       </c>
       <c r="D43" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.47652799178222904</v>
       </c>
       <c r="E43" s="40"/>
-      <c r="F43" s="63" t="str">
+      <c r="F43" s="62" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>itinerary</v>
       </c>
       <c r="G43" s="35">
-        <f t="shared" si="24"/>
-        <v>178.2967032967033</v>
-      </c>
-      <c r="H43" s="81">
-        <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
-        <v>180</v>
+        <f t="shared" si="25"/>
+        <v>2674.4505494505493</v>
+      </c>
+      <c r="H43" s="75">
+        <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>2676</v>
       </c>
       <c r="I43" s="21">
-        <f t="shared" si="25"/>
-        <v>9.4627594627594291E-3</v>
+        <f t="shared" si="26"/>
+        <v>5.790173951609745E-4</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -4321,29 +4311,29 @@
         <v>73</v>
       </c>
       <c r="C44" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>138.46153846153845</v>
       </c>
       <c r="D44" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.47277777777777774</v>
       </c>
       <c r="E44" s="33"/>
-      <c r="F44" s="63" t="str">
+      <c r="F44" s="62" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>delete</v>
       </c>
       <c r="G44" s="35">
-        <f t="shared" si="24"/>
-        <v>46.153846153846153</v>
-      </c>
-      <c r="H44" s="81">
-        <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>44</v>
+        <f t="shared" si="25"/>
+        <v>692.30769230769226</v>
+      </c>
+      <c r="H44" s="75">
+        <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>693</v>
       </c>
       <c r="I44" s="21">
-        <f t="shared" si="25"/>
-        <v>-4.8951048951048959E-2</v>
+        <f t="shared" si="26"/>
+        <v>9.990009990010762E-4</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -4354,29 +4344,29 @@
         <v>326</v>
       </c>
       <c r="C45" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>668.74725274725279</v>
       </c>
       <c r="D45" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.51252136190350994</v>
       </c>
       <c r="E45" s="33"/>
-      <c r="F45" s="63" t="str">
+      <c r="F45" s="62" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>logout</v>
       </c>
       <c r="G45" s="35">
-        <f t="shared" si="24"/>
-        <v>222.91575091575092</v>
-      </c>
-      <c r="H45" s="81">
-        <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
-        <v>183</v>
+        <f t="shared" si="25"/>
+        <v>3343.7362637362639</v>
+      </c>
+      <c r="H45" s="75">
+        <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>3336</v>
       </c>
       <c r="I45" s="21">
-        <f t="shared" si="25"/>
-        <v>-0.21811885746311988</v>
+        <f t="shared" si="26"/>
+        <v>-2.3190239017578662E-3</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="36" x14ac:dyDescent="0.35">
@@ -4387,29 +4377,29 @@
         <v>97</v>
       </c>
       <c r="C46" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>189.47368421052633</v>
       </c>
       <c r="D46" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.48805555555555558</v>
       </c>
       <c r="E46" s="33"/>
-      <c r="F46" s="63" t="str">
+      <c r="F46" s="62" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>sign_up</v>
       </c>
       <c r="G46" s="35">
-        <f t="shared" si="24"/>
-        <v>63.15789473684211</v>
-      </c>
-      <c r="H46" s="81">
-        <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
-        <v>63</v>
+        <f t="shared" si="25"/>
+        <v>947.36842105263167</v>
+      </c>
+      <c r="H46" s="75">
+        <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>948</v>
       </c>
       <c r="I46" s="21">
-        <f t="shared" si="25"/>
-        <v>-2.5062656641605674E-3</v>
+        <f t="shared" si="26"/>
+        <v>6.6622251832104684E-4</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="36" x14ac:dyDescent="0.35">
@@ -4420,29 +4410,29 @@
         <v>97</v>
       </c>
       <c r="C47" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>189.47368421052633</v>
       </c>
       <c r="D47" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.48805555555555558</v>
       </c>
       <c r="E47" s="33"/>
-      <c r="F47" s="63" t="str">
+      <c r="F47" s="62" t="str">
         <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
         <v>customer_profile</v>
       </c>
       <c r="G47" s="35">
-        <f t="shared" si="24"/>
-        <v>63.15789473684211</v>
-      </c>
-      <c r="H47" s="81">
-        <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
-        <v>63</v>
+        <f t="shared" si="25"/>
+        <v>947.36842105263167</v>
+      </c>
+      <c r="H47" s="75">
+        <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>948</v>
       </c>
       <c r="I47" s="21">
-        <f t="shared" si="25"/>
-        <v>-2.5062656641605674E-3</v>
+        <f t="shared" si="26"/>
+        <v>6.6622251832104684E-4</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="36" x14ac:dyDescent="0.35">
@@ -4453,29 +4443,29 @@
         <v>97</v>
       </c>
       <c r="C48" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>189.47368421052633</v>
       </c>
       <c r="D48" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.48805555555555558</v>
       </c>
       <c r="E48" s="33"/>
-      <c r="F48" s="63" t="str">
+      <c r="F48" s="62" t="str">
         <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
         <v>continue</v>
       </c>
       <c r="G48" s="35">
-        <f t="shared" si="24"/>
-        <v>63.15789473684211</v>
-      </c>
-      <c r="H48" s="81">
-        <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>63</v>
+        <f t="shared" si="25"/>
+        <v>947.36842105263167</v>
+      </c>
+      <c r="H48" s="75">
+        <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)*3</f>
+        <v>948</v>
       </c>
       <c r="I48" s="21">
-        <f t="shared" si="25"/>
-        <v>-2.5062656641605674E-3</v>
+        <f t="shared" si="26"/>
+        <v>6.6622251832104684E-4</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4486,20 +4476,20 @@
         <f>SUM(B37:B48)</f>
         <v>2944</v>
       </c>
-      <c r="C49" s="61">
-        <f>SUM(C37:C48)</f>
-        <v>5949.9167148640845</v>
-      </c>
-      <c r="D49" s="20">
-        <f t="shared" si="26"/>
-        <v>0.50520315811391137</v>
-      </c>
-      <c r="H49" s="78" t="e">
+      <c r="C49" s="38" t="e">
+        <f t="shared" si="24"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D49" s="20" t="e">
+        <f t="shared" si="27"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H49" s="72" t="e">
         <f>SUM(H37:H48/SUM(G37:G48))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I49" s="21" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4557,110 +4547,110 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="str">
+      <c r="A2" s="62" t="str">
         <f>'Автоматизированный расчет'!A37</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="str">
+      <c r="A3" s="62" t="str">
         <f>'Автоматизированный расчет'!A38</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="str">
+      <c r="A4" s="62" t="str">
         <f>'Автоматизированный расчет'!A39</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="str">
+      <c r="A5" s="62" t="str">
         <f>'Автоматизированный расчет'!A40</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="63" t="str">
+      <c r="A6" s="62" t="str">
         <f>'Автоматизированный расчет'!A41</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="str">
+      <c r="A7" s="62" t="str">
         <f>'Автоматизированный расчет'!A42</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="70" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="str">
+      <c r="A8" s="62" t="str">
         <f>'Автоматизированный расчет'!A43</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="63" t="str">
+      <c r="A9" s="62" t="str">
         <f>'Автоматизированный расчет'!A44</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="70" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="63" t="str">
+      <c r="A10" s="62" t="str">
         <f>'Автоматизированный расчет'!A45</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="63" t="str">
+      <c r="A11" s="62" t="str">
         <f>'Автоматизированный расчет'!A46</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="70" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="str">
+      <c r="A12" s="62" t="str">
         <f>'Автоматизированный расчет'!A47</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="70" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="str">
+      <c r="A13" s="62" t="str">
         <f>'Автоматизированный расчет'!A48</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="71" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4674,7 +4664,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection sqref="A1:J20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4683,668 +4673,668 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="81" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="83">
-        <v>0</v>
-      </c>
-      <c r="D2" s="83">
-        <v>0</v>
-      </c>
-      <c r="E2" s="83">
-        <v>1.492</v>
-      </c>
-      <c r="F2" s="83">
-        <v>0.191</v>
-      </c>
-      <c r="G2" s="83">
-        <v>1.27</v>
-      </c>
-      <c r="H2" s="83">
-        <v>322</v>
-      </c>
-      <c r="I2" s="83">
+      <c r="C2" s="81">
+        <v>0</v>
+      </c>
+      <c r="D2" s="81">
+        <v>0</v>
+      </c>
+      <c r="E2" s="81">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="F2" s="81">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G2" s="81">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="H2" s="81">
+        <v>1802</v>
+      </c>
+      <c r="I2" s="81">
         <v>2</v>
       </c>
-      <c r="J2" s="83">
+      <c r="J2" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="83">
-        <v>0</v>
-      </c>
-      <c r="D3" s="83">
-        <v>0</v>
-      </c>
-      <c r="E3" s="83">
-        <v>0.193</v>
-      </c>
-      <c r="F3" s="83">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G3" s="83">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="H3" s="83">
-        <v>152</v>
-      </c>
-      <c r="I3" s="83">
-        <v>0</v>
-      </c>
-      <c r="J3" s="83">
+      <c r="C3" s="81">
+        <v>0</v>
+      </c>
+      <c r="D3" s="81">
+        <v>0</v>
+      </c>
+      <c r="E3" s="81">
+        <v>0.128</v>
+      </c>
+      <c r="F3" s="81">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G3" s="81">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H3" s="81">
+        <v>946</v>
+      </c>
+      <c r="I3" s="81">
+        <v>0</v>
+      </c>
+      <c r="J3" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="83">
-        <v>0</v>
-      </c>
-      <c r="D4" s="83">
-        <v>0</v>
-      </c>
-      <c r="E4" s="83">
+      <c r="C4" s="81">
+        <v>0</v>
+      </c>
+      <c r="D4" s="81">
+        <v>0</v>
+      </c>
+      <c r="E4" s="81">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F4" s="81">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G4" s="81">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="H4" s="81">
+        <v>316</v>
+      </c>
+      <c r="I4" s="81">
+        <v>0</v>
+      </c>
+      <c r="J4" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="81">
+        <v>0</v>
+      </c>
+      <c r="D5" s="81">
+        <v>0</v>
+      </c>
+      <c r="E5" s="81">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F5" s="81">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G5" s="81">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H5" s="81">
+        <v>316</v>
+      </c>
+      <c r="I5" s="81">
+        <v>0</v>
+      </c>
+      <c r="J5" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="81">
+        <v>0</v>
+      </c>
+      <c r="D6" s="81">
+        <v>0</v>
+      </c>
+      <c r="E6" s="81">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F6" s="81">
+        <v>0.03</v>
+      </c>
+      <c r="G6" s="81">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H6" s="81">
+        <v>231</v>
+      </c>
+      <c r="I6" s="81">
+        <v>0</v>
+      </c>
+      <c r="J6" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="81">
+        <v>0</v>
+      </c>
+      <c r="D7" s="81">
+        <v>0</v>
+      </c>
+      <c r="E7" s="81">
+        <v>0.109</v>
+      </c>
+      <c r="F7" s="81">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G7" s="81">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H7" s="81">
+        <v>942</v>
+      </c>
+      <c r="I7" s="81">
+        <v>0</v>
+      </c>
+      <c r="J7" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="81">
+        <v>0</v>
+      </c>
+      <c r="D8" s="81">
+        <v>0</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F8" s="81">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G8" s="81">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H8" s="81">
+        <v>968</v>
+      </c>
+      <c r="I8" s="81">
+        <v>1</v>
+      </c>
+      <c r="J8" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="81">
+        <v>0</v>
+      </c>
+      <c r="D9" s="81">
+        <v>0</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F9" s="81">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G9" s="81">
+        <v>0.187</v>
+      </c>
+      <c r="H9" s="81">
+        <v>1806</v>
+      </c>
+      <c r="I9" s="81">
+        <v>0</v>
+      </c>
+      <c r="J9" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="81">
+        <v>0</v>
+      </c>
+      <c r="D10" s="81">
+        <v>0</v>
+      </c>
+      <c r="E10" s="81">
         <v>0.48399999999999999</v>
       </c>
-      <c r="F4" s="83">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="G4" s="83">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="H4" s="83">
-        <v>63</v>
-      </c>
-      <c r="I4" s="83">
-        <v>0</v>
-      </c>
-      <c r="J4" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="83" t="s">
+      <c r="F10" s="81">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G10" s="81">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H10" s="81">
+        <v>892</v>
+      </c>
+      <c r="I10" s="81">
+        <v>0</v>
+      </c>
+      <c r="J10" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="83">
-        <v>0</v>
-      </c>
-      <c r="D5" s="83">
-        <v>0</v>
-      </c>
-      <c r="E5" s="83">
-        <v>0.152</v>
-      </c>
-      <c r="F5" s="83">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G5" s="83">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="H5" s="83">
-        <v>63</v>
-      </c>
-      <c r="I5" s="83">
-        <v>0</v>
-      </c>
-      <c r="J5" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="83" t="s">
+      <c r="C11" s="81">
+        <v>0</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F11" s="81">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G11" s="81">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H11" s="81">
+        <v>1488</v>
+      </c>
+      <c r="I11" s="81">
+        <v>1</v>
+      </c>
+      <c r="J11" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="83">
-        <v>0</v>
-      </c>
-      <c r="D6" s="83">
-        <v>0</v>
-      </c>
-      <c r="E6" s="83">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="F6" s="83">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="G6" s="83">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="H6" s="83">
-        <v>44</v>
-      </c>
-      <c r="I6" s="83">
-        <v>2</v>
-      </c>
-      <c r="J6" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="83" t="s">
+      <c r="C12" s="81">
+        <v>0</v>
+      </c>
+      <c r="D12" s="81">
+        <v>0</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F12" s="81">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G12" s="81">
+        <v>0.187</v>
+      </c>
+      <c r="H12" s="81">
+        <v>1112</v>
+      </c>
+      <c r="I12" s="81">
+        <v>0</v>
+      </c>
+      <c r="J12" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="83">
-        <v>0</v>
-      </c>
-      <c r="D7" s="83">
-        <v>0</v>
-      </c>
-      <c r="E7" s="83">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="F7" s="83">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G7" s="83">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="H7" s="83">
-        <v>152</v>
-      </c>
-      <c r="I7" s="83">
-        <v>0</v>
-      </c>
-      <c r="J7" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="83" t="s">
+      <c r="C13" s="81">
+        <v>0</v>
+      </c>
+      <c r="D13" s="81">
+        <v>0</v>
+      </c>
+      <c r="E13" s="81">
+        <v>0.13</v>
+      </c>
+      <c r="F13" s="81">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="81">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H13" s="81">
+        <v>572</v>
+      </c>
+      <c r="I13" s="81">
+        <v>0</v>
+      </c>
+      <c r="J13" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="83">
-        <v>0</v>
-      </c>
-      <c r="D8" s="83">
-        <v>0</v>
-      </c>
-      <c r="E8" s="83">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="F8" s="83">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="G8" s="83">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="H8" s="83">
-        <v>155</v>
-      </c>
-      <c r="I8" s="83">
-        <v>0</v>
-      </c>
-      <c r="J8" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="83" t="s">
+      <c r="C14" s="81">
+        <v>0</v>
+      </c>
+      <c r="D14" s="81">
+        <v>0</v>
+      </c>
+      <c r="E14" s="81">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F14" s="81">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G14" s="81">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H14" s="81">
+        <v>316</v>
+      </c>
+      <c r="I14" s="81">
+        <v>0</v>
+      </c>
+      <c r="J14" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="83">
-        <v>0</v>
-      </c>
-      <c r="D9" s="83">
-        <v>0</v>
-      </c>
-      <c r="E9" s="83">
-        <v>0.37</v>
-      </c>
-      <c r="F9" s="83">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="G9" s="83">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="H9" s="83">
-        <v>323</v>
-      </c>
-      <c r="I9" s="83">
-        <v>0</v>
-      </c>
-      <c r="J9" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="83" t="s">
+      <c r="C15" s="81">
+        <v>0</v>
+      </c>
+      <c r="D15" s="81">
+        <v>0</v>
+      </c>
+      <c r="E15" s="81">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F15" s="81">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G15" s="81">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H15" s="81">
+        <v>569</v>
+      </c>
+      <c r="I15" s="81">
+        <v>1</v>
+      </c>
+      <c r="J15" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="83">
-        <v>0</v>
-      </c>
-      <c r="D10" s="83">
-        <v>0</v>
-      </c>
-      <c r="E10" s="83">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="F10" s="83">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="G10" s="83">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="H10" s="83">
-        <v>180</v>
-      </c>
-      <c r="I10" s="83">
-        <v>0</v>
-      </c>
-      <c r="J10" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="83" t="s">
+      <c r="C16" s="81">
+        <v>0</v>
+      </c>
+      <c r="D16" s="81">
+        <v>0</v>
+      </c>
+      <c r="E16" s="81">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F16" s="81">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G16" s="81">
+        <v>0.746</v>
+      </c>
+      <c r="H16" s="81">
+        <v>285</v>
+      </c>
+      <c r="I16" s="81">
+        <v>0</v>
+      </c>
+      <c r="J16" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="83">
-        <v>0</v>
-      </c>
-      <c r="D11" s="83">
-        <v>0</v>
-      </c>
-      <c r="E11" s="83">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="F11" s="83">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="G11" s="83">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="H11" s="83">
-        <v>260</v>
-      </c>
-      <c r="I11" s="83">
-        <v>0</v>
-      </c>
-      <c r="J11" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="83" t="s">
+      <c r="C17" s="81">
+        <v>0</v>
+      </c>
+      <c r="D17" s="81">
+        <v>0</v>
+      </c>
+      <c r="E17" s="81">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F17" s="81">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G17" s="81">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="H17" s="81">
+        <v>27</v>
+      </c>
+      <c r="I17" s="81">
+        <v>0</v>
+      </c>
+      <c r="J17" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="83">
-        <v>0</v>
-      </c>
-      <c r="D12" s="83">
-        <v>0</v>
-      </c>
-      <c r="E12" s="83">
-        <v>0.373</v>
-      </c>
-      <c r="F12" s="83">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="G12" s="83">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="H12" s="83">
-        <v>183</v>
-      </c>
-      <c r="I12" s="83">
-        <v>0</v>
-      </c>
-      <c r="J12" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="83" t="s">
+      <c r="C18" s="81">
+        <v>0</v>
+      </c>
+      <c r="D18" s="81">
+        <v>0</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F18" s="81">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G18" s="81">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="H18" s="81">
+        <v>316</v>
+      </c>
+      <c r="I18" s="81">
+        <v>0</v>
+      </c>
+      <c r="J18" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="83">
-        <v>0</v>
-      </c>
-      <c r="D13" s="83">
-        <v>0</v>
-      </c>
-      <c r="E13" s="83">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="F13" s="83">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G13" s="83">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="H13" s="83">
-        <v>77</v>
-      </c>
-      <c r="I13" s="83">
-        <v>0</v>
-      </c>
-      <c r="J13" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="83" t="s">
+      <c r="C19" s="81">
+        <v>0</v>
+      </c>
+      <c r="D19" s="81">
+        <v>0</v>
+      </c>
+      <c r="E19" s="81">
+        <v>1.05</v>
+      </c>
+      <c r="F19" s="81">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G19" s="81">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="H19" s="81">
+        <v>374</v>
+      </c>
+      <c r="I19" s="81">
+        <v>1</v>
+      </c>
+      <c r="J19" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="83">
-        <v>0</v>
-      </c>
-      <c r="D14" s="83">
-        <v>0</v>
-      </c>
-      <c r="E14" s="83">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="F14" s="83">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G14" s="83">
-        <v>0.13</v>
-      </c>
-      <c r="H14" s="83">
-        <v>63</v>
-      </c>
-      <c r="I14" s="83">
-        <v>0</v>
-      </c>
-      <c r="J14" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="83">
-        <v>0</v>
-      </c>
-      <c r="D15" s="83">
-        <v>0</v>
-      </c>
-      <c r="E15" s="83">
-        <v>1.482</v>
-      </c>
-      <c r="F15" s="83">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="G15" s="83">
-        <v>1.3420000000000001</v>
-      </c>
-      <c r="H15" s="83">
-        <v>77</v>
-      </c>
-      <c r="I15" s="83">
-        <v>0</v>
-      </c>
-      <c r="J15" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="83">
-        <v>0</v>
-      </c>
-      <c r="D16" s="83">
-        <v>0</v>
-      </c>
-      <c r="E16" s="83">
-        <v>1.125</v>
-      </c>
-      <c r="F16" s="83">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="G16" s="83">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="H16" s="83">
-        <v>57</v>
-      </c>
-      <c r="I16" s="83">
-        <v>0</v>
-      </c>
-      <c r="J16" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="83">
-        <v>0</v>
-      </c>
-      <c r="D17" s="83">
-        <v>0</v>
-      </c>
-      <c r="E17" s="83">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="F17" s="83">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G17" s="83">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="H17" s="83">
-        <v>5</v>
-      </c>
-      <c r="I17" s="83">
-        <v>0</v>
-      </c>
-      <c r="J17" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="83">
-        <v>0</v>
-      </c>
-      <c r="D18" s="83">
-        <v>0</v>
-      </c>
-      <c r="E18" s="83">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="F18" s="83">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="G18" s="83">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="H18" s="83">
-        <v>63</v>
-      </c>
-      <c r="I18" s="83">
-        <v>0</v>
-      </c>
-      <c r="J18" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="83">
-        <v>0</v>
-      </c>
-      <c r="D19" s="83">
-        <v>0</v>
-      </c>
-      <c r="E19" s="83">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="F19" s="83">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="G19" s="83">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="H19" s="83">
-        <v>76</v>
-      </c>
-      <c r="I19" s="83">
-        <v>0</v>
-      </c>
-      <c r="J19" s="83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="83">
-        <v>0</v>
-      </c>
-      <c r="D20" s="83">
-        <v>0</v>
-      </c>
-      <c r="E20" s="83">
-        <v>1.492</v>
-      </c>
-      <c r="F20" s="83">
-        <v>0.121</v>
-      </c>
-      <c r="G20" s="83">
-        <v>1.3720000000000001</v>
-      </c>
-      <c r="H20" s="83">
-        <v>44</v>
-      </c>
-      <c r="I20" s="83">
-        <v>2</v>
-      </c>
-      <c r="J20" s="83">
+      <c r="C20" s="81">
+        <v>0</v>
+      </c>
+      <c r="D20" s="81">
+        <v>0</v>
+      </c>
+      <c r="E20" s="81">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="F20" s="81">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G20" s="81">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H20" s="81">
+        <v>231</v>
+      </c>
+      <c r="I20" s="81">
+        <v>0</v>
+      </c>
+      <c r="J20" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5378,13 +5368,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
     </row>
     <row r="11" spans="5:9" ht="28" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
@@ -5537,13 +5527,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E25" s="8" t="s">
@@ -5703,13 +5693,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E35" s="77" t="s">
+      <c r="E35" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E37" s="8" t="s">
